--- a/data/MA models template AGEE.xlsx
+++ b/data/MA models template AGEE.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\WURNET.NL\Homes\young003\My Documents\6 DST final\Data\R-inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\phd_maddy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A2A24B-477A-4F6F-8C73-537F59A1048F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196763CC-E360-4A6D-8D50-17F5E38AF1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E0441C4D-C8EC-4443-ADB3-8A3D25AC4E8B}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="20820" windowHeight="8964" xr2:uid="{E0441C4D-C8EC-4443-ADB3-8A3D25AC4E8B}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="covariates" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$R$86</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1690,8 +1690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6936F6D6-CAF0-4760-8242-CACEDA25EFE2}">
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U77" sqref="U77"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1757,29 +1757,31 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="4"/>
+        <v>141</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="G2" s="4" t="s">
         <v>65</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>26</v>
@@ -1800,40 +1802,42 @@
         <v>1</v>
       </c>
       <c r="P2" s="5">
-        <v>21</v>
+        <v>-35.092105263157897</v>
       </c>
       <c r="Q2" s="5">
-        <v>2.5510204081632653</v>
+        <v>6.9179645542427552</v>
       </c>
       <c r="R2" s="6">
-        <v>268</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="4"/>
+        <v>141</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="G3" s="4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>26</v>
@@ -1854,40 +1858,42 @@
         <v>1</v>
       </c>
       <c r="P3" s="5">
-        <v>5</v>
+        <v>-28.538899430000001</v>
       </c>
       <c r="Q3" s="5">
-        <v>2.0302589045518791</v>
+        <v>4.705107849927229</v>
       </c>
       <c r="R3" s="6">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="4"/>
+        <v>141</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="G4" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>26</v>
@@ -1908,148 +1914,114 @@
         <v>1</v>
       </c>
       <c r="P4" s="5">
-        <v>-1.29555</v>
+        <v>-43.34545</v>
       </c>
       <c r="Q4" s="5">
-        <v>1.5492015306122449</v>
+        <v>11.103895408163266</v>
       </c>
       <c r="R4" s="6">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="6">
-        <v>19.666666666666668</v>
-      </c>
-      <c r="P5" s="5">
-        <v>1.1362334467769644</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>4.5086623118432145</v>
-      </c>
-      <c r="R5" s="6">
-        <v>44</v>
+      <c r="A5" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17">
+        <v>1</v>
+      </c>
+      <c r="P5" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="R5" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="6">
-        <v>1</v>
-      </c>
-      <c r="P6" s="5">
-        <v>4.5269286749999997</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>1.1139827107916398</v>
-      </c>
-      <c r="R6" s="6">
-        <v>367</v>
+      <c r="A6" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17">
+        <v>1</v>
+      </c>
+      <c r="P6" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="R6" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="4"/>
+        <v>141</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="G7" s="4" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>26</v>
@@ -2070,40 +2042,42 @@
         <v>1</v>
       </c>
       <c r="P7" s="5">
-        <v>-5</v>
+        <v>-2.763157895</v>
       </c>
       <c r="Q7" s="5">
-        <v>2.7289691693518137</v>
+        <v>4.1621911921799368</v>
       </c>
       <c r="R7" s="6">
-        <v>22</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="4"/>
+        <v>141</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="G8" s="4" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>26</v>
@@ -2124,148 +2098,114 @@
         <v>1</v>
       </c>
       <c r="P8" s="5">
-        <v>11.3</v>
+        <v>20.263157889999999</v>
       </c>
       <c r="Q8" s="5">
-        <v>3.8761465652271134</v>
+        <v>7.653061224649222</v>
       </c>
       <c r="R8" s="6">
-        <v>82</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="6">
-        <v>1</v>
-      </c>
-      <c r="P9" s="5">
-        <v>-11.42857143</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>7.2157434412526795</v>
-      </c>
-      <c r="R9" s="6">
-        <v>7</v>
+      <c r="A9" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17">
+        <v>1</v>
+      </c>
+      <c r="P9" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="R9" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" s="6">
-        <v>1</v>
-      </c>
-      <c r="P10" s="5">
-        <v>1.846473029</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>2.7786010668352956</v>
-      </c>
-      <c r="R10" s="6">
-        <v>181</v>
+      <c r="A10" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17">
+        <v>1</v>
+      </c>
+      <c r="P10" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="R10" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="4"/>
+        <v>141</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="G11" s="4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>26</v>
@@ -2283,151 +2223,117 @@
         <v>29</v>
       </c>
       <c r="O11" s="6">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="P11" s="5">
-        <v>0.97655172400000001</v>
+        <v>-20.482758620689602</v>
       </c>
       <c r="Q11" s="5">
-        <v>9.500351847250706E-3</v>
+        <v>4.8557353976072957</v>
       </c>
       <c r="R11" s="6">
-        <v>367</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O12" s="6">
-        <v>1</v>
-      </c>
-      <c r="P12" s="5">
-        <v>-5.163934426</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>0.52275008368831988</v>
-      </c>
-      <c r="R12" s="6">
-        <v>6005</v>
+      <c r="A12" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17">
+        <v>1</v>
+      </c>
+      <c r="P12" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="R12" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O13" s="6">
-        <v>1</v>
-      </c>
-      <c r="P13" s="5">
-        <v>-8.48</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>1.4016528927304146</v>
-      </c>
-      <c r="R13" s="6">
-        <v>171</v>
+      <c r="A13" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17">
+        <v>1</v>
+      </c>
+      <c r="P13" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="R13" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="G14" s="4" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>26</v>
@@ -2445,43 +2351,43 @@
         <v>29</v>
       </c>
       <c r="O14" s="6">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P14" s="5">
-        <v>-5.7617586912065404</v>
+        <v>0.47222222200000002</v>
       </c>
       <c r="Q14" s="5">
-        <v>1.6759004215183011</v>
+        <v>5.2914115666666671E-2</v>
       </c>
       <c r="R14" s="6">
-        <v>177</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>26</v>
@@ -2493,49 +2399,49 @@
         <v>28</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="O15" s="6">
-        <v>1</v>
+        <v>18.377906976744185</v>
       </c>
       <c r="P15" s="5">
-        <v>-4</v>
+        <v>1.4922831002847201</v>
       </c>
       <c r="Q15" s="5">
-        <v>2.3333333333333335</v>
+        <v>2.8682117346938778</v>
       </c>
       <c r="R15" s="6">
-        <v>36</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>26</v>
@@ -2547,46 +2453,48 @@
         <v>28</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="N16" s="4" t="s">
         <v>29</v>
       </c>
       <c r="O16" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P16" s="5">
-        <v>5.3</v>
+        <v>1.298862</v>
       </c>
       <c r="Q16" s="5">
-        <v>2.6020408160000001</v>
+        <v>0.16092270408163267</v>
       </c>
       <c r="R16" s="6">
-        <v>177</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="G17" s="4" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>25</v>
@@ -2607,40 +2515,42 @@
         <v>29</v>
       </c>
       <c r="O17" s="6">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P17" s="5">
-        <v>1.4</v>
+        <v>1.868090687652239</v>
       </c>
       <c r="Q17" s="5">
-        <v>7.8917264449376592E-2</v>
+        <v>0.203622764451481</v>
       </c>
       <c r="R17" s="6">
-        <v>107</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="G18" s="4" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>25</v>
@@ -2661,40 +2571,42 @@
         <v>29</v>
       </c>
       <c r="O18" s="6">
-        <v>1</v>
+        <v>23.39473684</v>
       </c>
       <c r="P18" s="5">
-        <v>-3.31717</v>
+        <v>0.73948256499999998</v>
       </c>
       <c r="Q18" s="5">
-        <v>2.5485459183673469</v>
+        <v>0.12300513104826111</v>
       </c>
       <c r="R18" s="6">
-        <v>84</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="G19" s="4" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>25</v>
@@ -2715,151 +2627,115 @@
         <v>29</v>
       </c>
       <c r="O19" s="6">
-        <v>1</v>
+        <v>23.039215689999999</v>
       </c>
       <c r="P19" s="5">
-        <v>-5</v>
+        <v>1.449702128</v>
       </c>
       <c r="Q19" s="5">
-        <v>4.3643578047198481</v>
+        <v>0.22208707001234146</v>
       </c>
       <c r="R19" s="6">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O20" s="6">
-        <v>1</v>
-      </c>
-      <c r="P20" s="5">
-        <v>-9.5</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>1.7082066399625162</v>
-      </c>
-      <c r="R20" s="6">
-        <v>133</v>
+      <c r="A20" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17">
+        <v>1</v>
+      </c>
+      <c r="P20" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="R20" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O21" s="4">
-        <v>1</v>
-      </c>
-      <c r="P21" s="4">
-        <v>-9.1</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>2.1886694525676416</v>
-      </c>
-      <c r="R21" s="4">
-        <v>73</v>
+      <c r="A21" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17">
+        <v>1</v>
+      </c>
+      <c r="P21" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="R21" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>26</v>
@@ -2877,43 +2753,45 @@
         <v>29</v>
       </c>
       <c r="O22" s="6">
-        <v>11.96</v>
+        <v>7.7862595419999998</v>
       </c>
       <c r="P22" s="5">
-        <v>1.122790253</v>
+        <v>1.1244678476001277</v>
       </c>
       <c r="Q22" s="5">
-        <v>0.18891933271823938</v>
+        <v>0.21513018843550266</v>
       </c>
       <c r="R22" s="6">
-        <v>75</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="G23" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>26</v>
@@ -2931,43 +2809,45 @@
         <v>29</v>
       </c>
       <c r="O23" s="6">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="P23" s="5">
-        <v>-5.5862068965517198</v>
+        <v>0.30625000000000002</v>
       </c>
       <c r="Q23" s="5">
-        <v>0.68613652357493871</v>
+        <v>0.13674961730790192</v>
       </c>
       <c r="R23" s="6">
-        <v>247</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="G24" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>26</v>
@@ -2979,49 +2859,51 @@
         <v>28</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>29</v>
       </c>
       <c r="O24" s="6">
-        <v>1</v>
+        <v>16.952380949999998</v>
       </c>
       <c r="P24" s="5">
-        <v>-7</v>
+        <v>-4.8960674157303367E-2</v>
       </c>
       <c r="Q24" s="5">
-        <v>3.3806170189140663</v>
+        <v>0.14806179770887173</v>
       </c>
       <c r="R24" s="6">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="G25" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>26</v>
@@ -3033,49 +2915,51 @@
         <v>28</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>29</v>
       </c>
       <c r="O25" s="6">
-        <v>1</v>
+        <v>19.91399904</v>
       </c>
       <c r="P25" s="5">
-        <v>0</v>
+        <v>0.35151151600000002</v>
       </c>
       <c r="Q25" s="5">
-        <v>6.7175144212722007</v>
+        <v>4.627459424428941E-2</v>
       </c>
       <c r="R25" s="6">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="G26" s="4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>26</v>
@@ -3093,43 +2977,45 @@
         <v>29</v>
       </c>
       <c r="O26" s="6">
-        <v>1</v>
+        <v>16.090686274509803</v>
       </c>
       <c r="P26" s="5">
-        <v>-8.9999999999999964</v>
+        <v>0.4375</v>
       </c>
       <c r="Q26" s="5">
-        <v>4.5918367346938789</v>
+        <v>0.14525329941989756</v>
       </c>
       <c r="R26" s="6">
-        <v>792</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="G27" s="4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>26</v>
@@ -3147,43 +3033,43 @@
         <v>29</v>
       </c>
       <c r="O27" s="6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="P27" s="5">
-        <v>-10.41445</v>
+        <v>0.44666666700000002</v>
       </c>
       <c r="Q27" s="5">
-        <v>5.7743622448979597</v>
+        <v>0.11815816793092331</v>
       </c>
       <c r="R27" s="6">
-        <v>244</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>26</v>
@@ -3197,47 +3083,49 @@
       <c r="M28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N28" s="4" t="s">
+      <c r="N28" s="5" t="s">
         <v>29</v>
       </c>
       <c r="O28" s="6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="P28" s="5">
-        <v>5</v>
+        <v>1.45</v>
       </c>
       <c r="Q28" s="5">
-        <v>2.3094010767585029</v>
+        <v>5.1020408000000003E-2</v>
       </c>
       <c r="R28" s="6">
-        <v>27</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="G29" s="4" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>26</v>
@@ -3255,43 +3143,45 @@
         <v>29</v>
       </c>
       <c r="O29" s="6">
-        <v>1</v>
+        <v>20.416666670000001</v>
       </c>
       <c r="P29" s="5">
-        <v>-7.5238095239999998</v>
+        <v>1.273469387755102</v>
       </c>
       <c r="Q29" s="5">
-        <v>1.2876579201925897</v>
+        <v>0.3498542274052478</v>
       </c>
       <c r="R29" s="6">
-        <v>873</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="G30" s="4" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>26</v>
@@ -3309,43 +3199,45 @@
         <v>29</v>
       </c>
       <c r="O30" s="6">
-        <v>1</v>
+        <v>16.090686274509803</v>
       </c>
       <c r="P30" s="5">
-        <v>-2.74</v>
+        <v>1.0565118050266566</v>
       </c>
       <c r="Q30" s="5">
-        <v>0.61024498862643128</v>
+        <v>9.8416849637780385E-2</v>
       </c>
       <c r="R30" s="6">
-        <v>392</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="G31" s="4" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>26</v>
@@ -3363,43 +3255,45 @@
         <v>29</v>
       </c>
       <c r="O31" s="6">
-        <v>1</v>
+        <v>16.090686274509803</v>
       </c>
       <c r="P31" s="5">
-        <v>-4.3558282208588901</v>
+        <v>1.6158415841584159</v>
       </c>
       <c r="Q31" s="5">
-        <v>1.1933454363340406</v>
+        <v>0.25430887962230664</v>
       </c>
       <c r="R31" s="6">
-        <v>62</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="G32" s="4" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>26</v>
@@ -3417,129 +3311,183 @@
         <v>29</v>
       </c>
       <c r="O32" s="6">
-        <v>1</v>
+        <v>16.090686274509803</v>
       </c>
       <c r="P32" s="5">
-        <v>-3</v>
+        <v>1.9265803503427266</v>
       </c>
       <c r="Q32" s="5">
-        <v>1.3199500146737049</v>
+        <v>0.2794060784986</v>
       </c>
       <c r="R32" s="6">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17">
-        <v>1</v>
-      </c>
-      <c r="P33" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="R33" s="17">
-        <v>1</v>
+      <c r="A33" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O33" s="6">
+        <v>10</v>
+      </c>
+      <c r="P33" s="5">
+        <v>-2.310238</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>0.25325535714285718</v>
+      </c>
+      <c r="R33" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17">
-        <v>1</v>
-      </c>
-      <c r="P34" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="R34" s="17">
-        <v>1</v>
+      <c r="A34" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O34" s="6">
+        <v>10</v>
+      </c>
+      <c r="P34" s="5">
+        <v>2.6122030000000001</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>0.60939566326530614</v>
+      </c>
+      <c r="R34" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17">
-        <v>1</v>
-      </c>
-      <c r="P35" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="R35" s="17">
-        <v>1</v>
+      <c r="A35" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O35" s="6">
+        <v>10</v>
+      </c>
+      <c r="P35" s="5">
+        <v>2.4053770000000001</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>0.6621573979591836</v>
+      </c>
+      <c r="R35" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>40</v>
@@ -3548,22 +3496,20 @@
         <v>98</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="F36" s="4"/>
       <c r="G36" s="4" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>26</v>
@@ -3575,49 +3521,51 @@
         <v>28</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="N36" s="4" t="s">
         <v>29</v>
       </c>
       <c r="O36" s="6">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P36" s="5">
-        <v>0.47222222200000002</v>
+        <v>1.547053</v>
       </c>
       <c r="Q36" s="5">
-        <v>5.2914115666666671E-2</v>
+        <v>1.105354081632653</v>
       </c>
       <c r="R36" s="6">
-        <v>81</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="G37" s="4" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>26</v>
@@ -3629,27 +3577,27 @@
         <v>28</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="N37" s="4" t="s">
         <v>29</v>
       </c>
       <c r="O37" s="6">
-        <v>18.377906976744185</v>
+        <v>18</v>
       </c>
       <c r="P37" s="5">
-        <v>1.4922831002847201</v>
+        <v>2.070451564549372</v>
       </c>
       <c r="Q37" s="5">
-        <v>2.8682117346938778</v>
+        <v>0.69403815489096088</v>
       </c>
       <c r="R37" s="6">
-        <v>67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>40</v>
@@ -3658,20 +3606,22 @@
         <v>98</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="G38" s="4" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>26</v>
@@ -3683,36 +3633,36 @@
         <v>28</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="N38" s="4" t="s">
         <v>29</v>
       </c>
       <c r="O38" s="6">
-        <v>10</v>
+        <v>23.39473684</v>
       </c>
       <c r="P38" s="5">
-        <v>1.298862</v>
+        <v>0.74803149599999996</v>
       </c>
       <c r="Q38" s="5">
-        <v>0.16092270408163267</v>
+        <v>9.6259072645888261E-2</v>
       </c>
       <c r="R38" s="6">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>99</v>
@@ -3721,10 +3671,10 @@
         <v>115</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>25</v>
@@ -3745,77 +3695,57 @@
         <v>29</v>
       </c>
       <c r="O39" s="6">
-        <v>18</v>
+        <v>23.039215689999999</v>
       </c>
       <c r="P39" s="5">
-        <v>1.868090687652239</v>
+        <v>1.4062978719999999</v>
       </c>
       <c r="Q39" s="5">
-        <v>0.203622764451481</v>
+        <v>0.19724197736302082</v>
       </c>
       <c r="R39" s="6">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="A40" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="C40" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O40" s="6">
-        <v>23.39473684</v>
-      </c>
-      <c r="P40" s="5">
-        <v>0.73948256499999998</v>
-      </c>
-      <c r="Q40" s="5">
-        <v>0.12300513104826111</v>
-      </c>
-      <c r="R40" s="6">
-        <v>10</v>
+      <c r="D40" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17">
+        <v>1</v>
+      </c>
+      <c r="P40" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="R40" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>40</v>
@@ -3824,22 +3754,22 @@
         <v>98</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>99</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>26</v>
@@ -3857,21 +3787,21 @@
         <v>29</v>
       </c>
       <c r="O41" s="6">
-        <v>23.039215689999999</v>
+        <v>25.4</v>
       </c>
       <c r="P41" s="5">
-        <v>1.449702128</v>
+        <v>1.1409836065573771</v>
       </c>
       <c r="Q41" s="5">
-        <v>0.22208707001234146</v>
+        <v>0.17898962863834056</v>
       </c>
       <c r="R41" s="6">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>40</v>
@@ -3880,20 +3810,20 @@
         <v>98</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>99</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>26</v>
@@ -3911,21 +3841,21 @@
         <v>29</v>
       </c>
       <c r="O42" s="6">
-        <v>7.7862595419999998</v>
+        <v>8.8836477990000002</v>
       </c>
       <c r="P42" s="5">
-        <v>1.1244678476001277</v>
+        <v>1.347071838</v>
       </c>
       <c r="Q42" s="5">
-        <v>0.21513018843550266</v>
+        <v>8.7097892263563417E-2</v>
       </c>
       <c r="R42" s="6">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>19</v>
@@ -3934,23 +3864,21 @@
         <v>98</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>99</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>57</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="I43" s="4"/>
       <c r="J43" s="4" t="s">
         <v>26</v>
       </c>
@@ -3967,21 +3895,21 @@
         <v>29</v>
       </c>
       <c r="O43" s="6">
-        <v>16</v>
+        <v>16.090686274509803</v>
       </c>
       <c r="P43" s="5">
-        <v>0.30625000000000002</v>
+        <v>0.43503427265803507</v>
       </c>
       <c r="Q43" s="5">
-        <v>0.13674961730790192</v>
+        <v>4.1462514381406787E-2</v>
       </c>
       <c r="R43" s="6">
-        <v>47</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>19</v>
@@ -3990,22 +3918,22 @@
         <v>98</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>99</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>26</v>
@@ -4017,36 +3945,36 @@
         <v>28</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="N44" s="4" t="s">
         <v>29</v>
       </c>
       <c r="O44" s="6">
-        <v>16.952380949999998</v>
+        <v>16.090686274509803</v>
       </c>
       <c r="P44" s="5">
-        <v>-4.8960674157303367E-2</v>
+        <v>0.62147753236862147</v>
       </c>
       <c r="Q44" s="5">
-        <v>0.14806179770887173</v>
+        <v>0.30853666969322874</v>
       </c>
       <c r="R44" s="6">
-        <v>62</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>99</v>
@@ -4055,13 +3983,13 @@
         <v>103</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>26</v>
@@ -4073,51 +4001,51 @@
         <v>28</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="N45" s="4" t="s">
         <v>29</v>
       </c>
       <c r="O45" s="6">
-        <v>19.91399904</v>
+        <v>16.241379309999999</v>
       </c>
       <c r="P45" s="5">
-        <v>0.35151151600000002</v>
+        <v>0.25244161358811035</v>
       </c>
       <c r="Q45" s="5">
-        <v>4.627459424428941E-2</v>
+        <v>0.15885350314670091</v>
       </c>
       <c r="R45" s="6">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>99</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>26</v>
@@ -4135,45 +4063,45 @@
         <v>29</v>
       </c>
       <c r="O46" s="6">
-        <v>16.090686274509803</v>
+        <v>18</v>
       </c>
       <c r="P46" s="5">
-        <v>0.4375</v>
+        <v>0.2</v>
       </c>
       <c r="Q46" s="5">
-        <v>0.14525329941989756</v>
+        <v>4.5093820868192074E-2</v>
       </c>
       <c r="R46" s="6">
-        <v>131</v>
+        <v>367</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>99</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>26</v>
@@ -4191,21 +4119,21 @@
         <v>29</v>
       </c>
       <c r="O47" s="6">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P47" s="5">
-        <v>0.44666666700000002</v>
+        <v>0.47222222200000002</v>
       </c>
       <c r="Q47" s="5">
-        <v>0.11815816793092331</v>
+        <v>5.2914115666666671E-2</v>
       </c>
       <c r="R47" s="6">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>19</v>
@@ -4214,20 +4142,22 @@
         <v>98</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F48" s="4"/>
+      <c r="F48" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="G48" s="4" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>26</v>
@@ -4241,25 +4171,25 @@
       <c r="M48" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N48" s="5" t="s">
+      <c r="N48" s="4" t="s">
         <v>29</v>
       </c>
       <c r="O48" s="6">
-        <v>20</v>
+        <v>16.090686274509803</v>
       </c>
       <c r="P48" s="5">
-        <v>1.45</v>
+        <v>-6.2147753236862148E-2</v>
       </c>
       <c r="Q48" s="5">
-        <v>5.1020408000000003E-2</v>
+        <v>7.9835274085352986E-2</v>
       </c>
       <c r="R48" s="6">
-        <v>150</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>40</v>
@@ -4268,22 +4198,20 @@
         <v>98</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="F49" s="4"/>
       <c r="G49" s="4" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>26</v>
@@ -4292,54 +4220,52 @@
         <v>27</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="N49" s="4" t="s">
         <v>29</v>
       </c>
       <c r="O49" s="6">
-        <v>20.416666670000001</v>
+        <v>10</v>
       </c>
       <c r="P49" s="5">
-        <v>1.273469387755102</v>
+        <v>0.13785</v>
       </c>
       <c r="Q49" s="5">
-        <v>0.3498542274052478</v>
+        <v>0.25033392857142861</v>
       </c>
       <c r="R49" s="6">
-        <v>28</v>
+        <v>10.782608695652174</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>121</v>
-      </c>
+      <c r="F50" s="4"/>
       <c r="G50" s="4" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>26</v>
@@ -4348,54 +4274,54 @@
         <v>27</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="N50" s="4" t="s">
         <v>29</v>
       </c>
       <c r="O50" s="6">
-        <v>16.090686274509803</v>
+        <v>10</v>
       </c>
       <c r="P50" s="5">
-        <v>1.0565118050266566</v>
+        <v>1.130841</v>
       </c>
       <c r="Q50" s="5">
-        <v>9.8416849637780385E-2</v>
+        <v>0.16092882653061219</v>
       </c>
       <c r="R50" s="6">
-        <v>193</v>
+        <v>10.782608695652174</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>99</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>26</v>
@@ -4407,22 +4333,22 @@
         <v>28</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="N51" s="4" t="s">
         <v>29</v>
       </c>
       <c r="O51" s="6">
-        <v>16.090686274509803</v>
+        <v>19.980246910000002</v>
       </c>
       <c r="P51" s="5">
-        <v>1.6158415841584159</v>
+        <v>0.300296589</v>
       </c>
       <c r="Q51" s="5">
-        <v>0.25430887962230664</v>
+        <v>5.6564023356132039E-2</v>
       </c>
       <c r="R51" s="6">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
@@ -4430,28 +4356,28 @@
         <v>120</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>99</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>26</v>
@@ -4472,40 +4398,40 @@
         <v>16.090686274509803</v>
       </c>
       <c r="P52" s="5">
-        <v>1.9265803503427266</v>
+        <v>0.375</v>
       </c>
       <c r="Q52" s="5">
-        <v>0.2794060784986</v>
+        <v>7.1610395757095241E-2</v>
       </c>
       <c r="R52" s="6">
-        <v>67</v>
+        <v>410</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>26</v>
@@ -4517,49 +4443,49 @@
         <v>28</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="N53" s="4" t="s">
         <v>29</v>
       </c>
       <c r="O53" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P53" s="5">
-        <v>-2.310238</v>
+        <v>21</v>
       </c>
       <c r="Q53" s="5">
-        <v>0.25325535714285718</v>
+        <v>2.5510204081632653</v>
       </c>
       <c r="R53" s="6">
-        <v>2</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>26</v>
@@ -4571,49 +4497,49 @@
         <v>28</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="N54" s="4" t="s">
         <v>29</v>
       </c>
       <c r="O54" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P54" s="5">
-        <v>2.6122030000000001</v>
+        <v>5</v>
       </c>
       <c r="Q54" s="5">
-        <v>0.60939566326530614</v>
+        <v>2.0302589045518791</v>
       </c>
       <c r="R54" s="6">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>26</v>
@@ -4625,49 +4551,49 @@
         <v>28</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="N55" s="4" t="s">
         <v>29</v>
       </c>
       <c r="O55" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P55" s="5">
-        <v>2.4053770000000001</v>
+        <v>-1.29555</v>
       </c>
       <c r="Q55" s="5">
-        <v>0.6621573979591836</v>
+        <v>1.5492015306122449</v>
       </c>
       <c r="R55" s="6">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>26</v>
@@ -4679,22 +4605,22 @@
         <v>28</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="N56" s="4" t="s">
         <v>29</v>
       </c>
       <c r="O56" s="6">
-        <v>10</v>
+        <v>19.666666666666668</v>
       </c>
       <c r="P56" s="5">
-        <v>1.547053</v>
+        <v>1.1362334467769644</v>
       </c>
       <c r="Q56" s="5">
-        <v>1.105354081632653</v>
+        <v>4.5086623118432145</v>
       </c>
       <c r="R56" s="6">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
@@ -4705,22 +4631,20 @@
         <v>78</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>115</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F57" s="4"/>
       <c r="G57" s="4" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>25</v>
@@ -4741,16 +4665,16 @@
         <v>29</v>
       </c>
       <c r="O57" s="6">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="P57" s="5">
-        <v>2.070451564549372</v>
+        <v>4.5269286749999997</v>
       </c>
       <c r="Q57" s="5">
-        <v>0.69403815489096088</v>
+        <v>1.1139827107916398</v>
       </c>
       <c r="R57" s="6">
-        <v>10</v>
+        <v>367</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
@@ -4761,22 +4685,20 @@
         <v>40</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>115</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F58" s="4"/>
       <c r="G58" s="4" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>25</v>
@@ -4797,16 +4719,16 @@
         <v>29</v>
       </c>
       <c r="O58" s="6">
-        <v>23.39473684</v>
+        <v>1</v>
       </c>
       <c r="P58" s="5">
-        <v>0.74803149599999996</v>
+        <v>-5</v>
       </c>
       <c r="Q58" s="5">
-        <v>9.6259072645888261E-2</v>
+        <v>2.7289691693518137</v>
       </c>
       <c r="R58" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
@@ -4817,22 +4739,20 @@
         <v>40</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>115</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F59" s="4"/>
       <c r="G59" s="4" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>25</v>
@@ -4853,154 +4773,116 @@
         <v>29</v>
       </c>
       <c r="O59" s="6">
-        <v>23.039215689999999</v>
+        <v>1</v>
       </c>
       <c r="P59" s="5">
-        <v>1.4062978719999999</v>
+        <v>11.3</v>
       </c>
       <c r="Q59" s="5">
-        <v>0.19724197736302082</v>
+        <v>3.8761465652271134</v>
       </c>
       <c r="R59" s="6">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L60" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M60" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N60" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O60" s="6">
-        <v>25.4</v>
-      </c>
-      <c r="P60" s="5">
-        <v>1.1409836065573771</v>
-      </c>
-      <c r="Q60" s="5">
-        <v>0.17898962863834056</v>
-      </c>
-      <c r="R60" s="6">
-        <v>38</v>
+      <c r="A60" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17">
+        <v>1</v>
+      </c>
+      <c r="P60" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="R60" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L61" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M61" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N61" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O61" s="6">
-        <v>8.8836477990000002</v>
-      </c>
-      <c r="P61" s="5">
-        <v>1.347071838</v>
-      </c>
-      <c r="Q61" s="5">
-        <v>8.7097892263563417E-2</v>
-      </c>
-      <c r="R61" s="6">
-        <v>159</v>
+      <c r="A61" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17">
+        <v>1</v>
+      </c>
+      <c r="P61" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="R61" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>121</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F62" s="4"/>
       <c r="G62" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I62" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="J62" s="4" t="s">
         <v>26</v>
       </c>
@@ -5017,45 +4899,43 @@
         <v>29</v>
       </c>
       <c r="O62" s="6">
-        <v>16.090686274509803</v>
+        <v>1</v>
       </c>
       <c r="P62" s="5">
-        <v>0.43503427265803507</v>
+        <v>-11.42857143</v>
       </c>
       <c r="Q62" s="5">
-        <v>4.1462514381406787E-2</v>
+        <v>7.2157434412526795</v>
       </c>
       <c r="R62" s="6">
-        <v>243</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>121</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F63" s="4"/>
       <c r="G63" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>26</v>
@@ -5073,45 +4953,43 @@
         <v>29</v>
       </c>
       <c r="O63" s="6">
-        <v>16.090686274509803</v>
+        <v>1</v>
       </c>
       <c r="P63" s="5">
-        <v>0.62147753236862147</v>
+        <v>1.846473029</v>
       </c>
       <c r="Q63" s="5">
-        <v>0.30853666969322874</v>
+        <v>2.7786010668352956</v>
       </c>
       <c r="R63" s="6">
-        <v>13</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>103</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F64" s="4"/>
       <c r="G64" s="4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>26</v>
@@ -5123,51 +5001,49 @@
         <v>28</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="N64" s="4" t="s">
         <v>29</v>
       </c>
       <c r="O64" s="6">
-        <v>16.241379309999999</v>
+        <v>4.5</v>
       </c>
       <c r="P64" s="5">
-        <v>0.25244161358811035</v>
+        <v>0.97655172400000001</v>
       </c>
       <c r="Q64" s="5">
-        <v>0.15885350314670091</v>
+        <v>9.500351847250706E-3</v>
       </c>
       <c r="R64" s="6">
-        <v>20</v>
+        <v>367</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>115</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F65" s="4"/>
       <c r="G65" s="4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>26</v>
@@ -5185,45 +5061,43 @@
         <v>29</v>
       </c>
       <c r="O65" s="6">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="P65" s="5">
-        <v>0.2</v>
+        <v>-5.163934426</v>
       </c>
       <c r="Q65" s="5">
-        <v>4.5093820868192074E-2</v>
+        <v>0.52275008368831988</v>
       </c>
       <c r="R65" s="6">
-        <v>367</v>
+        <v>6005</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>115</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F66" s="4"/>
       <c r="G66" s="4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>26</v>
@@ -5241,45 +5115,43 @@
         <v>29</v>
       </c>
       <c r="O66" s="6">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="P66" s="5">
-        <v>0.47222222200000002</v>
+        <v>-8.48</v>
       </c>
       <c r="Q66" s="5">
-        <v>5.2914115666666671E-2</v>
+        <v>1.4016528927304146</v>
       </c>
       <c r="R66" s="6">
-        <v>81</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>121</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F67" s="4"/>
       <c r="G67" s="4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>26</v>
@@ -5297,43 +5169,43 @@
         <v>29</v>
       </c>
       <c r="O67" s="6">
-        <v>16.090686274509803</v>
+        <v>1</v>
       </c>
       <c r="P67" s="5">
-        <v>-6.2147753236862148E-2</v>
+        <v>-5.7617586912065404</v>
       </c>
       <c r="Q67" s="5">
-        <v>7.9835274085352986E-2</v>
+        <v>1.6759004215183011</v>
       </c>
       <c r="R67" s="6">
-        <v>48</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="J68" s="4" t="s">
         <v>26</v>
@@ -5342,52 +5214,52 @@
         <v>27</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="N68" s="4" t="s">
         <v>29</v>
       </c>
       <c r="O68" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P68" s="5">
-        <v>0.13785</v>
+        <v>-4</v>
       </c>
       <c r="Q68" s="5">
-        <v>0.25033392857142861</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="R68" s="6">
-        <v>10.782608695652174</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="J69" s="4" t="s">
         <v>26</v>
@@ -5396,54 +5268,52 @@
         <v>27</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="N69" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N69" s="5" t="s">
         <v>29</v>
       </c>
       <c r="O69" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P69" s="5">
-        <v>1.130841</v>
+        <v>5.3</v>
       </c>
       <c r="Q69" s="5">
-        <v>0.16092882653061219</v>
+        <v>2.6020408160000001</v>
       </c>
       <c r="R69" s="6">
-        <v>10.782608695652174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>103</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F70" s="4"/>
       <c r="G70" s="4" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="J70" s="4" t="s">
         <v>26</v>
@@ -5455,51 +5325,49 @@
         <v>28</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="N70" s="4" t="s">
         <v>29</v>
       </c>
       <c r="O70" s="6">
-        <v>19.980246910000002</v>
+        <v>1</v>
       </c>
       <c r="P70" s="5">
-        <v>0.300296589</v>
+        <v>1.4</v>
       </c>
       <c r="Q70" s="5">
-        <v>5.6564023356132039E-2</v>
+        <v>7.8917264449376592E-2</v>
       </c>
       <c r="R70" s="6">
-        <v>27</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>103</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F71" s="4"/>
       <c r="G71" s="4" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>26</v>
@@ -5517,209 +5385,241 @@
         <v>29</v>
       </c>
       <c r="O71" s="6">
-        <v>16.090686274509803</v>
+        <v>1</v>
       </c>
       <c r="P71" s="5">
-        <v>0.375</v>
+        <v>-3.31717</v>
       </c>
       <c r="Q71" s="5">
-        <v>7.1610395757095241E-2</v>
+        <v>2.5485459183673469</v>
       </c>
       <c r="R71" s="6">
-        <v>410</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O72" s="6">
+        <v>1</v>
+      </c>
+      <c r="P72" s="5">
+        <v>-5</v>
+      </c>
+      <c r="Q72" s="5">
+        <v>4.3643578047198481</v>
+      </c>
+      <c r="R72" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O73" s="6">
+        <v>1</v>
+      </c>
+      <c r="P73" s="5">
+        <v>-9.5</v>
+      </c>
+      <c r="Q73" s="5">
+        <v>1.7082066399625162</v>
+      </c>
+      <c r="R73" s="6">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O74" s="4">
+        <v>1</v>
+      </c>
+      <c r="P74" s="4">
+        <v>-9.1</v>
+      </c>
+      <c r="Q74" s="4">
+        <v>2.1886694525676416</v>
+      </c>
+      <c r="R74" s="4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A75" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="B75" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="C72" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D72" s="17" t="s">
+      <c r="C75" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17">
-        <v>1</v>
-      </c>
-      <c r="P72" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q72" s="17">
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17">
+        <v>1</v>
+      </c>
+      <c r="P75" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="17">
         <v>0.1</v>
       </c>
-      <c r="R72" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A73" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17">
-        <v>1</v>
-      </c>
-      <c r="P73" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q73" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="R73" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A74" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17">
-        <v>1</v>
-      </c>
-      <c r="P74" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q74" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="R74" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="J75" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K75" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L75" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M75" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N75" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O75" s="6">
-        <v>1</v>
-      </c>
-      <c r="P75" s="5">
-        <v>-35.092105263157897</v>
-      </c>
-      <c r="Q75" s="5">
-        <v>6.9179645542427552</v>
-      </c>
-      <c r="R75" s="6">
-        <v>59</v>
+      <c r="R75" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>148</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F76" s="4"/>
       <c r="G76" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>26</v>
@@ -5737,45 +5637,43 @@
         <v>29</v>
       </c>
       <c r="O76" s="6">
-        <v>1</v>
+        <v>11.96</v>
       </c>
       <c r="P76" s="5">
-        <v>-28.538899430000001</v>
+        <v>1.122790253</v>
       </c>
       <c r="Q76" s="5">
-        <v>4.705107849927229</v>
+        <v>0.18891933271823938</v>
       </c>
       <c r="R76" s="6">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>148</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F77" s="4"/>
       <c r="G77" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="J77" s="4" t="s">
         <v>26</v>
@@ -5796,42 +5694,40 @@
         <v>1</v>
       </c>
       <c r="P77" s="5">
-        <v>-43.34545</v>
+        <v>-5.5862068965517198</v>
       </c>
       <c r="Q77" s="5">
-        <v>11.103895408163266</v>
+        <v>0.68613652357493871</v>
       </c>
       <c r="R77" s="6">
-        <v>18</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>142</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F78" s="4"/>
       <c r="G78" s="4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="J78" s="4" t="s">
         <v>26</v>
@@ -5852,42 +5748,40 @@
         <v>1</v>
       </c>
       <c r="P78" s="5">
-        <v>-2.763157895</v>
+        <v>-7</v>
       </c>
       <c r="Q78" s="5">
-        <v>4.1621911921799368</v>
+        <v>3.3806170189140663</v>
       </c>
       <c r="R78" s="6">
-        <v>227</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>143</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F79" s="4"/>
       <c r="G79" s="4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="J79" s="4" t="s">
         <v>26</v>
@@ -5908,78 +5802,94 @@
         <v>1</v>
       </c>
       <c r="P79" s="5">
-        <v>20.263157889999999</v>
+        <v>0</v>
       </c>
       <c r="Q79" s="5">
-        <v>7.653061224649222</v>
+        <v>6.7175144212722007</v>
       </c>
       <c r="R79" s="6">
-        <v>110</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A80" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17">
-        <v>1</v>
-      </c>
-      <c r="P80" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q80" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="R80" s="17">
-        <v>1</v>
+      <c r="A80" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O80" s="6">
+        <v>1</v>
+      </c>
+      <c r="P80" s="5">
+        <v>-8.9999999999999964</v>
+      </c>
+      <c r="Q80" s="5">
+        <v>4.5918367346938789</v>
+      </c>
+      <c r="R80" s="6">
+        <v>792</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F81" s="14" t="s">
-        <v>146</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F81" s="14"/>
       <c r="G81" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>26</v>
@@ -6000,199 +5910,289 @@
         <v>1</v>
       </c>
       <c r="P81" s="15">
-        <v>-20.482758620689602</v>
+        <v>-10.41445</v>
       </c>
       <c r="Q81" s="15">
-        <v>4.8557353976072957</v>
+        <v>5.7743622448979597</v>
       </c>
       <c r="R81" s="16">
-        <v>33</v>
+        <v>244</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A82" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D82" s="17" t="s">
+      <c r="A82" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17">
-        <v>1</v>
-      </c>
-      <c r="P82" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q82" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="R82" s="17">
-        <v>1</v>
+      <c r="E82" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M82" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O82" s="6">
+        <v>1</v>
+      </c>
+      <c r="P82" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q82" s="5">
+        <v>2.3094010767585029</v>
+      </c>
+      <c r="R82" s="6">
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A83" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="B83" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D83" s="17" t="s">
+      <c r="A83" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17">
-        <v>1</v>
-      </c>
-      <c r="P83" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q83" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="R83" s="17">
-        <v>1</v>
+      <c r="E83" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N83" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O83" s="6">
+        <v>1</v>
+      </c>
+      <c r="P83" s="5">
+        <v>-7.5238095239999998</v>
+      </c>
+      <c r="Q83" s="5">
+        <v>1.2876579201925897</v>
+      </c>
+      <c r="R83" s="6">
+        <v>873</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A84" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="B84" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17">
-        <v>1</v>
-      </c>
-      <c r="P84" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q84" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="R84" s="17">
-        <v>1</v>
+      <c r="A84" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O84" s="6">
+        <v>1</v>
+      </c>
+      <c r="P84" s="5">
+        <v>-2.74</v>
+      </c>
+      <c r="Q84" s="5">
+        <v>0.61024498862643128</v>
+      </c>
+      <c r="R84" s="6">
+        <v>392</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A85" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="B85" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17">
-        <v>1</v>
-      </c>
-      <c r="P85" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q85" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="R85" s="17">
-        <v>1</v>
+      <c r="A85" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L85" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M85" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N85" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O85" s="6">
+        <v>1</v>
+      </c>
+      <c r="P85" s="5">
+        <v>-4.3558282208588901</v>
+      </c>
+      <c r="Q85" s="5">
+        <v>1.1933454363340406</v>
+      </c>
+      <c r="R85" s="6">
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A86" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="B86" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17">
-        <v>1</v>
-      </c>
-      <c r="P86" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q86" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="R86" s="17">
-        <v>1</v>
+      <c r="A86" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L86" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M86" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N86" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O86" s="6">
+        <v>1</v>
+      </c>
+      <c r="P86" s="5">
+        <v>-3</v>
+      </c>
+      <c r="Q86" s="5">
+        <v>1.3199500146737049</v>
+      </c>
+      <c r="R86" s="6">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R1" xr:uid="{549343E2-F5BB-4AC9-B292-96AF50642F8F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R74">
-      <sortCondition ref="D1"/>
+  <autoFilter ref="A1:R86" xr:uid="{549343E2-F5BB-4AC9-B292-96AF50642F8F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R86">
+      <sortCondition ref="C1:C86"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R81">
